--- a/fuentes/contenidos/grado08/guion04/CS_08_04_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion04/CS_08_04_CO_Escaleta.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA\PLANETA\Grado 8\Guion 08_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PLANETA\PLANETA\Grado 8\Guion 08_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="195">
   <si>
     <t>Asignatura</t>
   </si>
@@ -434,9 +434,6 @@
     <t>La Europa de la Restauración</t>
   </si>
   <si>
-    <t xml:space="preserve">El congreso de Viena </t>
-  </si>
-  <si>
     <t>Actividad para comprender la importancia del congreso de Viena para Europa, tras la derrota de Napoleón.</t>
   </si>
   <si>
@@ -593,7 +590,34 @@
     <t>Banco de actividades del tema La Restauración, el liberalismo y los nacionalismos</t>
   </si>
   <si>
-    <t>Asignado a Miguel Gil</t>
+    <t>Editado. Solo falta cambiar video en español ibérico por video en español latino, que está en http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000460&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil. Editado.</t>
+  </si>
+  <si>
+    <t>Editado.</t>
+  </si>
+  <si>
+    <t>Editado. Falta cambiar video en español ibérico por video en español latino, que está en http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000464&amp;ruta=Buscador. Además, en el PDF complementario es preciso dejar en Asignatura nada más "Ciencias Sociales", y en el grado "Octavo".</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel . Editado.</t>
+  </si>
+  <si>
+    <t>Incluir cambios en pestaña Presentación: - Cambiar "pero si preparamos" por "pero preparar". - Cambiar "Como paso previo de la realización" por "como paso previo a la realización". // Incluir cambios en pestaña Tarea: • En el ítem “Material”, cambiar la palabra ordenador por computador
+• En el ítem “Procedimiento” dejar solo los numerales (1., 2., 3…) y quitar el símbolo de grado (°).
+• En el segundo numeral del ítem “Procedimiento”, cambiar que va a tener por que tendrá
+• En el tercer numeral del ítem “Procedimiento”, comenzar el texto de las viñetas con mayúscula inicial: Inicio, Desarrollo, Conclusiones
+• En el cuarto y quinto numeral del ítem “Procedimiento”, cambiar debes tener en cuenta por ten en cuenta
+• En el ítem “Apertura e introducción” debe decir: saluda al auditorio y explica cuál será el tema del que hablarás y el orden de exposición de los distintos apartados.
+• En el ítem “Desarrollo de la exposición” debe decir: preséntale al auditorio la información. Habla despacio y modula el tono de voz (alto y claro) para que el discurso no se vuelva monótono. Mira al público, no leas lo que aparece en la pantalla, utiliza gestos para reforzar lo que dices, controla los tiempos y, sobre todo, utiliza un lenguaje sencillo.
+• En el ítem “Síntesis y conclusión” debe decir: antes de finalizar, resume las ideas principales y expresa tus conclusiones sobre el periodo o hito estudiado.
+• En el ítem “Turno de preguntas” debe decir: cuando termines tu exposición, invita a tus compañeros a que planteen sus dudas.
+• El texto final debe quedar así: Elige uno de los temas trabajados y prepara una exposición. Sigue los pasos expuestos en este procedimiento. //Además, en la explicación de la parte inferior debe decir: Para su realización, esta actividad debe asignarse como tarea.</t>
+  </si>
+  <si>
+    <t>Hacer ajustes solicitados en el correo electrónico.</t>
   </si>
 </sst>
 </file>
@@ -795,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -891,16 +915,34 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,23 +984,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,126 +1296,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="39" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
-    <col min="19" max="19" width="26.88671875" customWidth="1"/>
-    <col min="20" max="20" width="27.33203125" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:21" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="24" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
-    </row>
-    <row r="3" spans="1:21" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:21" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>18</v>
       </c>
@@ -1420,7 +1450,9 @@
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="O3" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="P3" s="23" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
@@ -1487,19 +1519,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="T4" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="U4" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="U4" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
@@ -1536,7 +1568,9 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="35">
         <v>10</v>
@@ -1554,7 +1588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1604,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H6" s="38">
         <v>4</v>
@@ -1579,7 +1613,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1589,7 +1623,9 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1603,13 +1639,13 @@
         <v>123</v>
       </c>
       <c r="T6" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U6" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1627,7 +1663,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="38">
         <v>5</v>
@@ -1636,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1646,7 +1682,9 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1660,13 +1698,13 @@
         <v>123</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U7" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
@@ -1677,12 +1715,12 @@
         <v>123</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="38">
         <v>6</v>
@@ -1691,7 +1729,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1701,7 +1739,9 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1715,13 +1755,13 @@
         <v>123</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U8" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>18</v>
       </c>
@@ -1732,14 +1772,14 @@
         <v>123</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="38">
         <v>7</v>
@@ -1748,7 +1788,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1758,7 +1798,9 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1772,13 +1814,13 @@
         <v>123</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U9" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>18</v>
       </c>
@@ -1789,10 +1831,10 @@
         <v>123</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16"/>
@@ -1811,7 +1853,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>18</v>
       </c>
@@ -1822,10 +1864,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16"/>
@@ -1844,7 +1886,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
@@ -1855,14 +1897,14 @@
         <v>123</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="38">
         <v>8</v>
@@ -1871,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -1881,7 +1923,9 @@
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
@@ -1895,13 +1939,13 @@
         <v>123</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U12" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>18</v>
       </c>
@@ -1912,14 +1956,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="38">
         <v>9</v>
@@ -1928,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -1938,7 +1982,9 @@
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
       </c>
@@ -1952,13 +1998,13 @@
         <v>123</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U13" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>18</v>
       </c>
@@ -1969,14 +2015,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="38">
         <v>10</v>
@@ -1985,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -1995,7 +2041,9 @@
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
@@ -2009,13 +2057,13 @@
         <v>123</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U14" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>18</v>
       </c>
@@ -2026,10 +2074,10 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16"/>
@@ -2048,7 +2096,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -2059,14 +2107,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" s="38">
         <v>11</v>
@@ -2075,7 +2123,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2085,7 +2133,9 @@
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="66" t="s">
+        <v>191</v>
+      </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
@@ -2099,13 +2149,13 @@
         <v>123</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U16" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>18</v>
       </c>
@@ -2116,14 +2166,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="38">
         <v>12</v>
@@ -2132,7 +2182,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2142,7 +2192,9 @@
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
       </c>
@@ -2156,13 +2208,13 @@
         <v>123</v>
       </c>
       <c r="T17" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U17" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
@@ -2173,14 +2225,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="38">
         <v>13</v>
@@ -2189,7 +2241,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2202,7 +2254,7 @@
         <v>43</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2211,19 +2263,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="S18" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="S18" s="35" t="s">
-        <v>181</v>
-      </c>
       <c r="T18" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U18" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>18</v>
       </c>
@@ -2234,14 +2286,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H19" s="38">
         <v>14</v>
@@ -2250,7 +2302,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2260,7 +2312,9 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
       </c>
@@ -2274,13 +2328,13 @@
         <v>123</v>
       </c>
       <c r="T19" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>18</v>
       </c>
@@ -2291,14 +2345,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="38">
         <v>15</v>
@@ -2307,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2317,7 +2371,9 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
       </c>
@@ -2331,13 +2387,13 @@
         <v>123</v>
       </c>
       <c r="T20" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U20" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
@@ -2348,12 +2404,12 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H21" s="38">
         <v>16</v>
@@ -2362,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2372,7 +2428,9 @@
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="67" t="s">
+        <v>193</v>
+      </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
@@ -2386,13 +2444,13 @@
         <v>123</v>
       </c>
       <c r="T21" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U21" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>18</v>
       </c>
@@ -2403,12 +2461,12 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" s="38">
         <v>17</v>
@@ -2417,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2427,7 +2485,9 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="67" t="s">
+        <v>194</v>
+      </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
       </c>
@@ -2441,13 +2501,13 @@
         <v>123</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U22" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2518,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
@@ -2472,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2502,7 +2562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>18</v>
       </c>
@@ -2513,12 +2573,12 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H24" s="38">
         <v>19</v>
@@ -2527,7 +2587,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2549,19 +2609,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="S24" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="S24" s="35" t="s">
-        <v>181</v>
-      </c>
       <c r="T24" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>18</v>
       </c>
@@ -2572,12 +2632,12 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H25" s="38">
         <v>20</v>
@@ -2586,7 +2646,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2608,19 +2668,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="S25" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="S25" s="35" t="s">
-        <v>181</v>
-      </c>
       <c r="T25" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="31"/>
@@ -2643,7 +2703,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="31"/>
@@ -2666,7 +2726,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="31"/>
@@ -2689,7 +2749,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="31"/>
@@ -2712,7 +2772,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="31"/>
@@ -2735,7 +2795,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="31"/>
@@ -2758,7 +2818,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="31"/>
@@ -2781,7 +2841,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="31"/>
@@ -2804,7 +2864,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="31"/>
@@ -2827,7 +2887,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="31"/>
@@ -2850,7 +2910,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="31"/>
@@ -2873,7 +2933,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="28"/>
       <c r="C37" s="31"/>
@@ -2896,7 +2956,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -2919,7 +2979,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -2942,7 +3002,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -2965,7 +3025,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -2988,7 +3048,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3011,7 +3071,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3034,7 +3094,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3057,7 +3117,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3080,7 +3140,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3103,7 +3163,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3126,7 +3186,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3149,7 +3209,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3172,7 +3232,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3195,7 +3255,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3218,7 +3278,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3241,7 +3301,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3264,7 +3324,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3287,7 +3347,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3310,7 +3370,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3333,7 +3393,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3356,7 +3416,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3379,7 +3439,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3402,7 +3462,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3425,7 +3485,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3448,7 +3508,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3471,7 +3531,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3494,7 +3554,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3517,7 +3577,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3540,7 +3600,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3563,7 +3623,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -3586,7 +3646,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -3609,7 +3669,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -3632,7 +3692,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -3655,378 +3715,372 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4041,6 +4095,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4091,27 +4151,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4128,7 +4188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4152,7 +4212,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4171,7 +4231,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4190,7 +4250,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +4266,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4223,7 +4283,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4240,7 +4300,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4255,7 +4315,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4270,7 +4330,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4285,7 +4345,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4300,7 +4360,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4315,7 +4375,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4330,7 +4390,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4345,7 +4405,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4360,7 +4420,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4375,7 +4435,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4389,7 +4449,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4403,7 +4463,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4417,7 +4477,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4431,7 +4491,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4446,7 +4506,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4461,7 +4521,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4476,7 +4536,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4491,7 +4551,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4506,7 +4566,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4521,7 +4581,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4536,7 +4596,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4551,7 +4611,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4566,7 +4626,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4581,7 +4641,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -4596,7 +4656,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4611,7 +4671,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -4626,7 +4686,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4641,7 +4701,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -4656,7 +4716,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -4671,7 +4731,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4686,7 +4746,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4701,7 +4761,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4716,7 +4776,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4731,7 +4791,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4746,7 +4806,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4761,7 +4821,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4776,7 +4836,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4791,7 +4851,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4806,7 +4866,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4821,7 +4881,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4836,7 +4896,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4851,7 +4911,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4863,7 +4923,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4875,7 +4935,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4888,7 +4948,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4901,7 +4961,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4914,7 +4974,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4927,7 +4987,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4940,7 +5000,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4953,7 +5013,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4966,7 +5026,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4979,7 +5039,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4992,7 +5052,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5005,7 +5065,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5018,7 +5078,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5031,7 +5091,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5044,7 +5104,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5057,7 +5117,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5070,7 +5130,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5083,7 +5143,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5096,7 +5156,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5109,7 +5169,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5122,7 +5182,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5135,7 +5195,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5149,7 +5209,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5163,7 +5223,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5177,7 +5237,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5191,7 +5251,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5205,7 +5265,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5219,7 +5279,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5233,7 +5293,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5247,7 +5307,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5261,7 +5321,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5275,7 +5335,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5289,7 +5349,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5303,7 +5363,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5317,7 +5377,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5331,7 +5391,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5345,7 +5405,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5359,7 +5419,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5373,7 +5433,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5387,7 +5447,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5401,7 +5461,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5415,7 +5475,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5429,7 +5489,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5443,7 +5503,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5457,7 +5517,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5471,7 +5531,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5485,7 +5545,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5499,7 +5559,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5513,7 +5573,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5527,7 +5587,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5541,7 +5601,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5555,7 +5615,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5569,7 +5629,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5583,7 +5643,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5597,7 +5657,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5611,7 +5671,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5625,7 +5685,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5639,7 +5699,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5653,7 +5713,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5667,7 +5727,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5681,7 +5741,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5695,7 +5755,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5709,7 +5769,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5723,7 +5783,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5737,7 +5797,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5751,7 +5811,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5765,7 +5825,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5779,7 +5839,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5793,7 +5853,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5807,7 +5867,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5821,7 +5881,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5835,7 +5895,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5849,7 +5909,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5863,7 +5923,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5877,7 +5937,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5891,7 +5951,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5905,7 +5965,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5919,7 +5979,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5933,7 +5993,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5947,7 +6007,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5961,7 +6021,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5975,7 +6035,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5989,7 +6049,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6003,7 +6063,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
